--- a/tradept/Excel/Localization/english/Y游戏内可配置字段_IntvalConfigs_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内可配置字段_IntvalConfigs_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C2CBB-640B-4AE0-9E4F-6F286C563251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D003BDB-D60B-4033-94C0-65687141DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -113,36 +113,36 @@
     <t>Modo Real</t>
   </si>
   <si>
-    <t>Esta opción impide reclutar Dragones, Ángeles, Fénix y otras criaturas mágicas poderosas. Las tropas pueden reclutarse utilizando un Permiso de Comercio en los puestos avanzados. Reduce en un 30% la experiencia y los recursos necesarios para mejorar las tropas.</t>
-  </si>
-  <si>
-    <t>Lesiones Reales</t>
-  </si>
-  <si>
-    <t>Esta opción hace que el daño sufrido en batalla sea más realista, provocando lesiones en las tropas. Las tropas se recuperarán de las lesiones con el tiempo, ¡pero serán permanentemente eliminadas si son derrotadas! Se puede usar el combate automático.</t>
-  </si>
-  <si>
-    <t>Dificultad de la IA</t>
-  </si>
-  <si>
-    <t>Ajustar esto afecta el comportamiento de la IA en el juego. Las dificultades más altas hacen que la IA sea más agresiva, reclute más tropas y obtenga mejor equipamiento.</t>
-  </si>
-  <si>
-    <t>Limites de Rodar</t>
-  </si>
-  <si>
-    <t>Seleccionar esta opción impone un tiempo de espera entre los rodamientos.</t>
-  </si>
-  <si>
-    <t>Desnutrición</t>
-  </si>
-  <si>
-    <t>Seleccionar esta opción ralentiza o acelera la Velocidad de Movimiento del grupo según el nivel de hambre.</t>
-  </si>
-  <si>
     <t>0#Fácil
 *1#Normal
 2#Difícil</t>
+  </si>
+  <si>
+    <t>Essa opção impede que você recrute Dragões, Anjos, Fênixes e outras criaturas mágicas poderosas. Tropas podem ser recrutadas usando um Permissão de Comércio em postos avançados. Reduz EXP e recursos necessários para aprimorar tropas em 30%.</t>
+  </si>
+  <si>
+    <t>Lesões Reais</t>
+  </si>
+  <si>
+    <t>Essa opção torna o dano sofrido em batalha mais realista, ferindo tropas. As tropas se recuperarão de ferimentos ao longo do tempo, mas serão permanentemente mortas se derrotadas! A batalha automática pode ser usada.</t>
+  </si>
+  <si>
+    <t>Dificuldade da IA</t>
+  </si>
+  <si>
+    <t>Ajustar isso afeta o comportamento da IA no jogo. Dificuldades mais altas fazem a IA ser mais agressiva, recrutar mais tropas e coletar equipamentos melhores.</t>
+  </si>
+  <si>
+    <t>Limite de Rolagem</t>
+  </si>
+  <si>
+    <t>Selecionar essa opção coloca um temporizador de resfriamento no rolar.</t>
+  </si>
+  <si>
+    <t>Debuff de Fome</t>
+  </si>
+  <si>
+    <t>Selecionar essa opção acelera ou desacelera a Velocidade de Movimento do grupo com base na Fome.</t>
   </si>
 </sst>
 </file>
@@ -260,30 +260,30 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -634,13 +634,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="248.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -663,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="191.25">
+    <row r="2" spans="1:7" ht="27">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -676,17 +685,17 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="168.75">
+    <row r="3" spans="1:7" ht="27">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -694,22 +703,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="135">
+    <row r="4" spans="1:7" ht="40.5">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -717,22 +726,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="27">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -740,22 +749,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="78.75">
+    <row r="6" spans="1:7" ht="27">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -763,19 +772,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/Y游戏内可配置字段_IntvalConfigs_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内可配置字段_IntvalConfigs_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D003BDB-D60B-4033-94C0-65687141DE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB93B-24A1-4202-8739-D2C17219538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,36 +113,36 @@
     <t>Modo Real</t>
   </si>
   <si>
+    <t>Lesões Reais</t>
+  </si>
+  <si>
+    <t>Dificuldade da IA</t>
+  </si>
+  <si>
+    <t>Limite de Rolamento</t>
+  </si>
+  <si>
+    <t>Penalidade de Fome</t>
+  </si>
+  <si>
     <t>0#Fácil
 *1#Normal
-2#Difícil</t>
-  </si>
-  <si>
-    <t>Essa opção impede que você recrute Dragões, Anjos, Fênixes e outras criaturas mágicas poderosas. Tropas podem ser recrutadas usando um Permissão de Comércio em postos avançados. Reduz EXP e recursos necessários para aprimorar tropas em 30%.</t>
-  </si>
-  <si>
-    <t>Lesões Reais</t>
-  </si>
-  <si>
-    <t>Essa opção torna o dano sofrido em batalha mais realista, ferindo tropas. As tropas se recuperarão de ferimentos ao longo do tempo, mas serão permanentemente mortas se derrotadas! A batalha automática pode ser usada.</t>
-  </si>
-  <si>
-    <t>Dificuldade da IA</t>
-  </si>
-  <si>
-    <t>Ajustar isso afeta o comportamento da IA no jogo. Dificuldades mais altas fazem a IA ser mais agressiva, recrutar mais tropas e coletar equipamentos melhores.</t>
-  </si>
-  <si>
-    <t>Limite de Rolagem</t>
-  </si>
-  <si>
-    <t>Selecionar essa opção coloca um temporizador de resfriamento no rolar.</t>
-  </si>
-  <si>
-    <t>Debuff de Fome</t>
-  </si>
-  <si>
-    <t>Selecionar essa opção acelera ou desacelera a Velocidade de Movimento do grupo com base na Fome.</t>
+2# Difícil</t>
+  </si>
+  <si>
+    <t>Esta opção impede que você recrute Dragões, Anjos, Fênix e outras criaturas mágicas poderosas. Tropas podem ser recrutadas usando uma Permissão de Comércio em postos avançados. Reduz em 30% a EXP e os recursos necessários para melhorar as tropas.</t>
+  </si>
+  <si>
+    <t>Essa opção torna o dano sofrido em batalha mais realista, ferindo as tropas. Tropas se recuperarão das feridas com o tempo, mas serão permanentemente mortas se derrotadas! O combate automático pode ser utilizado.</t>
+  </si>
+  <si>
+    <t>Ajustar isso afeta o comportamento da IA no jogo. Dificuldades mais altas fazem com que a IA seja mais agressiva, recrute mais tropas e colete equipamentos melhores.</t>
+  </si>
+  <si>
+    <t>Selecionar esta opção coloca um tempo de espera na rolagem (espaço).</t>
+  </si>
+  <si>
+    <t>Selecionar esta opção diminui ou aumenta a velocidade de movimento do grupo com base na fome.</t>
   </si>
 </sst>
 </file>
@@ -634,22 +634,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="128.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="248.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="231.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="33.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27">
+    <row r="2" spans="1:7" ht="191.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,17 +681,17 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27">
+    <row r="3" spans="1:7" ht="168.75">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -703,22 +699,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5">
+    <row r="4" spans="1:7" ht="135">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -726,22 +722,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -749,22 +745,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27">
+    <row r="6" spans="1:7" ht="78.75">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -772,12 +768,12 @@
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
